--- a/Sop/aula06/Pasta1.xlsx
+++ b/Sop/aula06/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mirella França\Senai-2023\Sop\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AEBB2-AD8F-4FA9-822D-CCE1B4803729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2EBBD-66D7-4605-9305-1A7B2E39CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA41780C-1B0D-463A-8A5E-00B56BC7CB7D}"/>
   </bookViews>
@@ -247,10 +247,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,25 +278,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -604,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C23A37F-A947-44C1-8E9F-A3E4AF3D7C85}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,21 +617,21 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="J1" s="8" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,236 +650,236 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>1000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <f>IF(VLOOKUP(B3,$J$3:$K$7,2,1)=0,7507.49*14%,VLOOKUP(B3,$J$3:$K$7,2,1)*B3)</f>
         <v>75</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <f>B3-C3</f>
         <v>925</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <f>VLOOKUP(B3,$J$11:$L$15,2,1)*B3-VLOOKUP(B3,$J$11:$L$15,3,1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <f>D3-E3</f>
         <v>925</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>2000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:C11" si="0">IF(VLOOKUP(B4,$J$3:$K$7,2,1)=0,7507.49*14%,VLOOKUP(B4,$J$3:$K$7,2,1)*B4)</f>
         <v>180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D11" si="1">B4-C4</f>
         <v>1820</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E11" si="2">VLOOKUP(B4,$J$11:$L$15,2,1)*B4-VLOOKUP(B4,$J$11:$L$15,3,1)</f>
         <v>7.1999999999999886</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F11" si="3">D4-E4</f>
         <v>1812.8</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="8">
         <v>1320.01</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="10">
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>3000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>2640</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <f t="shared" si="2"/>
         <v>95.199999999999989</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
         <v>2544.8000000000002</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="8">
         <v>2571.3000000000002</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="10">
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>4000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>3440</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <f t="shared" si="2"/>
         <v>263.87</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
         <v>3176.13</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="8">
         <v>3856.95</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="10">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>5000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>700.00000000000011</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <f t="shared" si="2"/>
         <v>505.64</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <f t="shared" si="3"/>
         <v>3794.36</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="8">
         <v>7507.49</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>6000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>840.00000000000011</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>5160</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <f t="shared" si="2"/>
         <v>780.64000000000021</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f t="shared" si="3"/>
         <v>4379.3599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>7000</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>980.00000000000011</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>6020</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <f t="shared" si="2"/>
         <v>1055.6400000000003</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <f t="shared" si="3"/>
         <v>4964.3599999999997</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>8000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>1051.0486000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>6948.9513999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <f t="shared" si="2"/>
         <v>1330.6399999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
         <v>5618.3114000000005</v>
       </c>
@@ -894,26 +893,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>10000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>1051.0486000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>8948.9513999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <f t="shared" si="2"/>
         <v>1880.6399999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f t="shared" si="3"/>
         <v>7068.3114000000005</v>
       </c>
@@ -926,46 +925,45 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" s="1">
         <v>1903.99</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L12" s="1">
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J13" s="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="7">
         <v>2826.66</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="6">
         <v>0.15</v>
       </c>
       <c r="L13" s="1">
         <v>354.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14" s="1">
         <v>3751.06</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="5">
         <v>0.22500000000000001</v>
       </c>
       <c r="L14" s="1">
         <v>636.13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15" s="1">
         <v>4664.6899999999996</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="5">
         <v>0.27500000000000002</v>
       </c>
       <c r="L15" s="1">
@@ -973,7 +971,7 @@
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="6"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
